--- a/m1/unidad3/Practicas/20191029/ELECCIONES USA.xlsx
+++ b/m1/unidad3/Practicas/20191029/ELECCIONES USA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Documents\POO\m1\unidad3\Practicas\20191029\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="147" sheetId="1" r:id="rId1"/>
@@ -35,12 +40,12 @@
     <definedName name="sencount" hidden="1">1</definedName>
     <definedName name="Teléfono">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="64">
   <si>
     <t>FUNCIONES DE BÚSQUEDA Y MATEMÁTICAS</t>
   </si>
@@ -237,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -669,6 +674,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1830,7 +1838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1865,7 +1873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2076,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2874,7 +2882,10 @@
         <v>59</v>
       </c>
       <c r="C76" s="26"/>
-      <c r="D76" s="14"/>
+      <c r="D76" s="14">
+        <f>COUNTIF(D13:D63,"Bush")</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="15">
@@ -2883,8 +2894,13 @@
       <c r="B77" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="18"/>
+      <c r="C77" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="18">
+        <f>SUMIF(D13:D63,C77,C13:C63)</f>
+        <v>267</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
@@ -2893,8 +2909,13 @@
       <c r="B78" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
+      <c r="C78" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="22" t="str">
+        <f>VLOOKUP(C78,B13:D63,3,FALSE)</f>
+        <v>Bush</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2905,7 +2926,10 @@
         <v>62</v>
       </c>
       <c r="C87" s="27"/>
-      <c r="D87" s="14"/>
+      <c r="D87" s="14" t="str">
+        <f>VLOOKUP(MAX(C13:C63),C13:E63,3,FALSE)</f>
+        <v>CALIFORNIA</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="23">
@@ -2925,6 +2949,14 @@
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
+      <formula1>$D$61:$D$62</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
+      <formula1>$B$13:$B$63</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.23622047244094491" right="0.75" top="0.23622047244094491" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
